--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987837.1844112172</v>
+        <v>1073119.245875763</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>182.5570120086803</v>
+        <v>28.33592091243833</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="V4" t="n">
-        <v>36.83583022557444</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.55400685770243</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
-        <v>119.8028521086858</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.3911939813409</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>55.71924642694414</v>
       </c>
       <c r="G6" t="n">
-        <v>135.568165595806</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>28.27158985086029</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.7067944022647</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
-        <v>31.85008003828427</v>
+        <v>225.8245826357508</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380619</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074945</v>
+        <v>110.3697346074946</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
-        <v>271.5341652938911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.3751434560081</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>246.336074505892</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>222.3963319833017</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.30660220273212</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1342,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>123.0150748547381</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>284.8749944270526</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1607,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>110.0923443600247</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5867442799596</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492377</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>147.0541277560815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>65.72456219185401</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>75.5308300738087</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041376</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.4223484152694</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>147.9212967840875</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>145.2481701217143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2372,19 +2374,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="F25" t="n">
-        <v>105.0076120744428</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2728,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.7822070347174</v>
       </c>
       <c r="W28" t="n">
-        <v>114.2656173771023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>301.7248287451639</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.5867442799591</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>40.64444437213178</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2998,10 +3000,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>199.7325946875383</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>13.02719212039654</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>202.6460827821278</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062639</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>240.5961408007932</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>290.8263485681712</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>111.9684348866502</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>204.8807665510135</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>209.3584761600174</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>33.38304376059015</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.67650313406747</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>77.15339550871941</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>16.32203054610791</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>224.7411810187697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>128.1592673228011</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>181.1133916141007</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4030692042958</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372655</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372655</v>
+        <v>549.202463503662</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.202463503662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227602</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062753</v>
+        <v>409.399488203391</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897905</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.55991817042155</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.0548693135482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V4" t="n">
-        <v>712.894439346518</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>523.4746543300331</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>523.4746543300331</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.0548693135482</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1176.447437915389</v>
+        <v>1259.83532363024</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.447437915389</v>
+        <v>1259.83532363024</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.447437915389</v>
+        <v>1259.83532363024</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.447437915389</v>
+        <v>1259.83532363024</v>
       </c>
       <c r="F5" t="n">
-        <v>765.4615331257818</v>
+        <v>848.8494188406327</v>
       </c>
       <c r="G5" t="n">
-        <v>349.315456436719</v>
+        <v>432.7033421515699</v>
       </c>
       <c r="H5" t="n">
-        <v>40.73657830355182</v>
+        <v>124.1244640184027</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355182</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473629</v>
+        <v>140.3063411473627</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978823</v>
+        <v>340.274123097882</v>
       </c>
       <c r="L5" t="n">
-        <v>625.253600826278</v>
+        <v>625.2536008262773</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100271</v>
+        <v>974.0176169100259</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774397</v>
+        <v>1333.038807774396</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417797</v>
+        <v>1658.717076417796</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012941</v>
+        <v>1902.174943012939</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177591</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177591</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177591</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.828915177591</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.828915177591</v>
+        <v>1783.212548328701</v>
       </c>
       <c r="V5" t="n">
-        <v>1915.815933249625</v>
+        <v>1452.14966098513</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.047277979511</v>
+        <v>1452.14966098513</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.047277979511</v>
+        <v>1259.83532363024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.047277979511</v>
+        <v>1259.83532363024</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.4405162086229</v>
+        <v>608.2007008148244</v>
       </c>
       <c r="C6" t="n">
-        <v>756.9874869274959</v>
+        <v>433.7476715336974</v>
       </c>
       <c r="D6" t="n">
-        <v>608.0530772662446</v>
+        <v>284.8132618724461</v>
       </c>
       <c r="E6" t="n">
-        <v>448.8156222607892</v>
+        <v>125.5758068669906</v>
       </c>
       <c r="F6" t="n">
-        <v>302.2810642876741</v>
+        <v>69.29373976906723</v>
       </c>
       <c r="G6" t="n">
-        <v>165.3435232818094</v>
+        <v>69.29373976906723</v>
       </c>
       <c r="H6" t="n">
-        <v>69.29373976906726</v>
+        <v>69.29373976906723</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355182</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J6" t="n">
-        <v>206.0519249621746</v>
+        <v>206.0519249621745</v>
       </c>
       <c r="K6" t="n">
-        <v>376.9432986792716</v>
+        <v>376.9432986792706</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3967940608956</v>
+        <v>621.3967940608945</v>
       </c>
       <c r="M6" t="n">
-        <v>926.019361217031</v>
+        <v>926.0193612170299</v>
       </c>
       <c r="N6" t="n">
-        <v>1253.113026208798</v>
+        <v>1253.113026208797</v>
       </c>
       <c r="O6" t="n">
-        <v>1530.12003154314</v>
+        <v>1530.120031543139</v>
       </c>
       <c r="P6" t="n">
-        <v>1733.109508449651</v>
+        <v>1733.109508449649</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513714</v>
+        <v>2026.859916513713</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177591</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="S6" t="n">
-        <v>2036.828915177591</v>
+        <v>1896.721042043989</v>
       </c>
       <c r="T6" t="n">
-        <v>2036.828915177591</v>
+        <v>1701.76264202638</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.657117159122</v>
+        <v>1473.65700300037</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.505008927379</v>
+        <v>1238.504894768627</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.267652199178</v>
+        <v>984.2675380404253</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.416151993645</v>
+        <v>776.4160378348924</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.655853228691</v>
+        <v>776.4160378348924</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.7240479114018</v>
+        <v>507.3330770175943</v>
       </c>
       <c r="C7" t="n">
-        <v>503.7240479114018</v>
+        <v>507.3330770175943</v>
       </c>
       <c r="D7" t="n">
-        <v>503.7240479114018</v>
+        <v>507.3330770175943</v>
       </c>
       <c r="E7" t="n">
-        <v>355.8109543290087</v>
+        <v>359.4199834352012</v>
       </c>
       <c r="F7" t="n">
-        <v>208.9210068310984</v>
+        <v>359.4199834352012</v>
       </c>
       <c r="G7" t="n">
-        <v>40.73657830355182</v>
+        <v>191.2355549076547</v>
       </c>
       <c r="H7" t="n">
-        <v>40.73657830355182</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355182</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536977</v>
+        <v>52.48822935536972</v>
       </c>
       <c r="K7" t="n">
         <v>201.6366387116522</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905645</v>
+        <v>448.0216872905644</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786036</v>
+        <v>718.1892983786033</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511244</v>
+        <v>987.3675439511242</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984398</v>
+        <v>1219.980925984397</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.50117728849</v>
+        <v>1395.501177288489</v>
       </c>
       <c r="Q7" t="n">
         <v>1433.587221206154</v>
       </c>
       <c r="R7" t="n">
-        <v>1322.102640794544</v>
+        <v>1322.102640794543</v>
       </c>
       <c r="S7" t="n">
-        <v>1322.102640794544</v>
+        <v>1322.102640794543</v>
       </c>
       <c r="T7" t="n">
-        <v>1322.102640794544</v>
+        <v>1098.278314508935</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.825706154249</v>
+        <v>1098.278314508935</v>
       </c>
       <c r="V7" t="n">
-        <v>793.1412179483625</v>
+        <v>843.5938263030479</v>
       </c>
       <c r="W7" t="n">
-        <v>503.7240479114018</v>
+        <v>554.1766562660873</v>
       </c>
       <c r="X7" t="n">
-        <v>503.7240479114018</v>
+        <v>554.1766562660873</v>
       </c>
       <c r="Y7" t="n">
-        <v>503.7240479114018</v>
+        <v>507.3330770175943</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>715.7758545264335</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>300.0711042507223</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4808,7 +4810,7 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1653.865026207378</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1263.725694231566</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4886,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>474.7770143030104</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4990,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1212.976314381518</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>923.5591443445579</v>
       </c>
       <c r="X10" t="n">
-        <v>1114.255484944676</v>
+        <v>695.5695934465406</v>
       </c>
       <c r="Y10" t="n">
-        <v>1114.255484944676</v>
+        <v>474.7770143030104</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1878.169188758594</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1878.169188758594</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1519.903490151844</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5039,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,13 +5050,13 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5075,16 +5077,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758594</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796261</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392144</v>
+        <v>810.5660676371782</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324639</v>
+        <v>452.3003690304277</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>880.2242361621301</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>880.2242361621301</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5461,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621301</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>880.2242361621301</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.2242361621301</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X17" t="n">
-        <v>2005.586939522201</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y17" t="n">
-        <v>2005.586939522201</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="18">
@@ -5583,37 +5585,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2489.924953962485</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C19" t="n">
-        <v>2320.988771034578</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D19" t="n">
-        <v>2170.872131622243</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E19" t="n">
-        <v>2022.95903803985</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F19" t="n">
-        <v>1876.069090541939</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V19" t="n">
-        <v>3325.605821609171</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W19" t="n">
-        <v>3120.355548834273</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X19" t="n">
-        <v>2892.365997936255</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y19" t="n">
-        <v>2671.573418792725</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097632</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490881</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E20" t="n">
-        <v>709.615767892637</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030294</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>363.5187033424295</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="C22" t="n">
-        <v>363.5187033424295</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427974</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.5412774992673</v>
+        <v>1611.713337450772</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
         <v>406.0926155839475</v>
@@ -5984,22 +5986,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6008,7 +6010,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>752.7622949738579</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="C25" t="n">
-        <v>583.826112045951</v>
+        <v>1693.034518692274</v>
       </c>
       <c r="D25" t="n">
-        <v>583.826112045951</v>
+        <v>1542.917879279938</v>
       </c>
       <c r="E25" t="n">
-        <v>583.826112045951</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V25" t="n">
-        <v>1672.610059882606</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.192889845645</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X25" t="n">
-        <v>1155.203338947628</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y25" t="n">
-        <v>934.4107598040977</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038044</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097632</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490882</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926375</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030299</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6245,7 +6247,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6263,13 +6265,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339057</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077977</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102166</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962486</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034579</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622243</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.95903803985</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.06909054194</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916659</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134517</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q28" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T28" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U28" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V28" t="n">
-        <v>3235.775364366699</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="W28" t="n">
-        <v>3120.355548834273</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="X28" t="n">
-        <v>2892.365997936256</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.573418792726</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796261</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>552.8079389392144</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324639</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6473,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6488,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>880.2242361621296</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C31" t="n">
-        <v>880.2242361621296</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="H31" t="n">
         <v>163.8377936138381</v>
@@ -6646,25 +6648,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W31" t="n">
-        <v>880.2242361621296</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X31" t="n">
-        <v>880.2242361621296</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.2242361621296</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6725,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2329.733514878603</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6782,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2405.758056700424</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C34" t="n">
-        <v>2236.821873772517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D34" t="n">
-        <v>2086.705234360181</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E34" t="n">
-        <v>1938.792140777788</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F34" t="n">
-        <v>1791.902193279878</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G34" t="n">
-        <v>1624.199356654597</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
-        <v>1477.982169872455</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.188651572211</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>2808.199100674194</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>2587.406521530664</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>1822.632236038043</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6944,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6971,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1007.446783179745</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C37" t="n">
-        <v>838.5106002518381</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D37" t="n">
-        <v>688.3939608395024</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E37" t="n">
-        <v>540.4808672571093</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>393.5909197591989</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7126,19 +7128,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1684.268143239207</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>1429.58365503332</v>
       </c>
       <c r="W37" t="n">
-        <v>1637.877378051532</v>
+        <v>1140.166484996359</v>
       </c>
       <c r="X37" t="n">
-        <v>1409.887827153515</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y37" t="n">
-        <v>1189.095248009985</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2269.968910186251</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520488</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.568750250373</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X38" t="n">
-        <v>2656.568750250373</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y38" t="n">
-        <v>2656.568750250373</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1632.526226578142</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>1632.526226578142</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>1632.526226578142</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>1632.526226578142</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>1632.526226578142</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>3014.008748936224</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>2807.058479692776</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V40" t="n">
-        <v>2552.37399148689</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W40" t="n">
-        <v>2262.956821449929</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X40" t="n">
-        <v>2034.967270551912</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y40" t="n">
-        <v>1814.174691408382</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7423,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,7 +7432,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y41" t="n">
-        <v>1647.321240915451</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>850.493580837645</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>850.493580837645</v>
       </c>
       <c r="D43" t="n">
         <v>772.5608581015648</v>
@@ -7564,7 +7566,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V43" t="n">
-        <v>1927.294548088493</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3309.118922067648</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520488</v>
+        <v>3055.588445341484</v>
       </c>
       <c r="V44" t="n">
-        <v>3009.337405520488</v>
+        <v>2724.525557997913</v>
       </c>
       <c r="W44" t="n">
-        <v>3009.337405520488</v>
+        <v>2371.756902727799</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>1998.291144466719</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1608.151812490907</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.2814163499066</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C46" t="n">
-        <v>528.3452334219998</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="D46" t="n">
-        <v>528.3452334219998</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>195.9659218087502</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7831,25 +7833,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W46" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X46" t="n">
-        <v>697.2814163499066</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y46" t="n">
-        <v>697.2814163499066</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944363</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174264</v>
+        <v>7.153582300174293</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>23.77864319610518</v>
+        <v>23.7786431961043</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>294.8344935184734</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>97.05537564520915</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>255.1805474109828</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>42.02872873825275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.59472895491432</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>235.679713907399</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>304.006538486615</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.08464294440365</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23947,10 +23949,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493159</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.4096317666679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>70.66335656800729</v>
       </c>
     </row>
     <row r="23">
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>209.4348714989687</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="24">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276375</v>
       </c>
       <c r="F25" t="n">
-        <v>40.4134359484884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24658,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911057</v>
       </c>
       <c r="W28" t="n">
-        <v>172.2573809594887</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>47.51613997224911</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02872873825321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.110570542189</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>51.26257727136371</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>83.32522828944155</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>152.0369588385552</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>126.9470448471895</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>45.61569740481966</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>74.44654320283638</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>215.7838235834847</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.33107165459936</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16.35117922901975</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>170.53492637903</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>335.5614355219861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>71.46207750949294</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25843,10 +25845,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>187.5959395935122</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>144.9899196596994</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>17.26178070013015</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.5962637749364</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469226</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719627</v>
@@ -26320,7 +26322,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
@@ -26329,10 +26331,10 @@
         <v>392146.663816559</v>
       </c>
       <c r="H2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="I2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="J2" t="n">
         <v>392146.663816559</v>
@@ -26341,10 +26343,10 @@
         <v>392146.663816559</v>
       </c>
       <c r="L2" t="n">
+        <v>392146.6638165591</v>
+      </c>
+      <c r="M2" t="n">
         <v>392146.663816559</v>
-      </c>
-      <c r="M2" t="n">
-        <v>392146.6638165589</v>
       </c>
       <c r="N2" t="n">
         <v>392146.6638165588</v>
@@ -26353,7 +26355,7 @@
         <v>392146.663816559</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995305</v>
+        <v>356083.2629995304</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.736186237</v>
+        <v>133886.7361862372</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>49064.94472854436</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253505</v>
+        <v>82790.56074253518</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822806</v>
+        <v>33250.48899822816</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>182435.2718021077</v>
+        <v>182435.2718021079</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26430,7 +26432,7 @@
         <v>13430.06689216532</v>
       </c>
       <c r="G4" t="n">
-        <v>13430.0668921653</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="H4" t="n">
         <v>13430.06689216532</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>82580.74337893911</v>
@@ -26482,7 +26484,7 @@
         <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453714.533691209</v>
+        <v>-453714.5336912094</v>
       </c>
       <c r="C6" t="n">
-        <v>-149000.2605086147</v>
+        <v>-149000.2605086146</v>
       </c>
       <c r="D6" t="n">
-        <v>100119.278347943</v>
+        <v>100119.2783479427</v>
       </c>
       <c r="E6" t="n">
-        <v>122337.2765458096</v>
+        <v>122337.2765458097</v>
       </c>
       <c r="F6" t="n">
-        <v>304410.2563630004</v>
+        <v>304410.2563630002</v>
       </c>
       <c r="G6" t="n">
         <v>304410.2563630004</v>
       </c>
       <c r="H6" t="n">
+        <v>304410.2563630002</v>
+      </c>
+      <c r="I6" t="n">
         <v>304410.2563630004</v>
       </c>
-      <c r="I6" t="n">
-        <v>304410.2563630003</v>
-      </c>
       <c r="J6" t="n">
-        <v>255345.3116344557</v>
+        <v>255345.311634456</v>
       </c>
       <c r="K6" t="n">
-        <v>221619.6956204653</v>
+        <v>221619.6956204652</v>
       </c>
       <c r="L6" t="n">
         <v>271159.7673647723</v>
       </c>
       <c r="M6" t="n">
-        <v>256857.9905695854</v>
+        <v>256857.9905695856</v>
       </c>
       <c r="N6" t="n">
-        <v>304410.2563630002</v>
+        <v>304410.256363</v>
       </c>
       <c r="O6" t="n">
+        <v>304410.2563630004</v>
+      </c>
+      <c r="P6" t="n">
         <v>304410.2563630003</v>
-      </c>
-      <c r="P6" t="n">
-        <v>304410.2563630001</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495295</v>
+        <v>825.3827462495294</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26747,10 +26749,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943977</v>
+        <v>509.2072287943973</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022928</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.912805336625</v>
+        <v>276.9128053366248</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680097</v>
+        <v>108.6821458680098</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280776</v>
+        <v>321.6816416280774</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056412</v>
+        <v>131.3776033056416</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280775</v>
+        <v>321.6816416280774</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056413</v>
+        <v>131.3776033056417</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280776</v>
+        <v>321.6816416280774</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056412</v>
+        <v>131.3776033056416</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>230.5408212213778</v>
+        <v>384.7619123176197</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27476,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>33.37651927036177</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590659</v>
+        <v>7.88401062568137</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>257.257996101892</v>
       </c>
       <c r="V4" t="n">
-        <v>215.3018130982535</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770242</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>207.9494063614491</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.3399066971281</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27704,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>89.34996596643974</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.08928567761473</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022646</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.0088160174318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>193.9745025974666</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>110.6903745240871</v>
@@ -27825,10 +27827,10 @@
         <v>198.0779304212289</v>
       </c>
       <c r="T7" t="n">
-        <v>221.5860830227523</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>14.70367887444411</v>
+        <v>286.2378441683352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>172.2095098960867</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>54.68247805651336</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>147.3347686951674</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5253779792052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>129.1225684690899</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31042,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,7 +31281,7 @@
         <v>3.31812159296293</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393162</v>
+        <v>33.98171276393161</v>
       </c>
       <c r="I5" t="n">
         <v>127.9218827127035</v>
@@ -31288,7 +31290,7 @@
         <v>281.6214225507377</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808587</v>
+        <v>422.0775095808586</v>
       </c>
       <c r="L5" t="n">
         <v>523.624473281498</v>
@@ -31297,7 +31299,7 @@
         <v>582.6331181603525</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363585</v>
+        <v>592.0607311363584</v>
       </c>
       <c r="O5" t="n">
         <v>559.0661595463333</v>
@@ -31306,10 +31308,10 @@
         <v>477.1500327200609</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720759</v>
+        <v>358.3198031720758</v>
       </c>
       <c r="R5" t="n">
-        <v>208.4319555139579</v>
+        <v>208.4319555139578</v>
       </c>
       <c r="S5" t="n">
         <v>75.61169579964285</v>
@@ -31318,7 +31320,7 @@
         <v>14.52507727319523</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370344</v>
+        <v>0.2654497274370343</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,28 +31357,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404649</v>
+        <v>1.775351567404648</v>
       </c>
       <c r="H6" t="n">
         <v>17.14615855888174</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055479</v>
+        <v>61.12504300055478</v>
       </c>
       <c r="J6" t="n">
         <v>167.7317899713313</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874428</v>
+        <v>286.6803449874427</v>
       </c>
       <c r="L6" t="n">
         <v>385.4771023875751</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059936</v>
+        <v>449.8335967059935</v>
       </c>
       <c r="N6" t="n">
-        <v>461.739353489159</v>
+        <v>461.7393534891589</v>
       </c>
       <c r="O6" t="n">
         <v>422.4013003377191</v>
@@ -31391,10 +31393,10 @@
         <v>110.2275297727202</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157317</v>
+        <v>32.97637670157316</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389787</v>
+        <v>7.155912677389786</v>
       </c>
       <c r="U6" t="n">
         <v>0.1167994452239901</v>
@@ -31440,7 +31442,7 @@
         <v>13.23318566937771</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317122</v>
+        <v>44.76010040317121</v>
       </c>
       <c r="J7" t="n">
         <v>105.2295347144687</v>
@@ -31464,19 +31466,19 @@
         <v>180.014623870553</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.632794683679</v>
+        <v>124.6327946836789</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967495</v>
+        <v>66.92365676967493</v>
       </c>
       <c r="S7" t="n">
-        <v>25.9386676157434</v>
+        <v>25.93866761574339</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529159</v>
+        <v>6.359506405529158</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569152</v>
+        <v>0.08118518815569151</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33898,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34387,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781685</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005518</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>100.5755180240515</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358782</v>
+        <v>201.9876585358781</v>
       </c>
       <c r="L5" t="n">
         <v>287.8580583115108</v>
@@ -34945,7 +34947,7 @@
         <v>352.2868849330798</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397676</v>
+        <v>362.6476675397675</v>
       </c>
       <c r="O5" t="n">
         <v>328.9679481246466</v>
@@ -34954,7 +34956,7 @@
         <v>245.9170369647914</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976264</v>
+        <v>136.0141132976263</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>166.9851986450735</v>
+        <v>166.9851986450734</v>
       </c>
       <c r="K6" t="n">
-        <v>172.617549209189</v>
+        <v>172.617549209188</v>
       </c>
       <c r="L6" t="n">
-        <v>246.922722607701</v>
+        <v>246.9227226077009</v>
       </c>
       <c r="M6" t="n">
         <v>307.6995627839752</v>
@@ -35027,16 +35029,16 @@
         <v>330.3976414058257</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932747</v>
+        <v>279.8050558932746</v>
       </c>
       <c r="P6" t="n">
         <v>205.0398756631416</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.7175839030947</v>
+        <v>296.7175839030946</v>
       </c>
       <c r="R6" t="n">
-        <v>10.0696956200771</v>
+        <v>10.06969562007708</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779591</v>
+        <v>11.8703545977959</v>
       </c>
       <c r="K7" t="n">
         <v>150.6549589457398</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433458</v>
+        <v>248.8737864433457</v>
       </c>
       <c r="M7" t="n">
         <v>272.8965768566051</v>
@@ -35106,13 +35108,13 @@
         <v>271.897217750021</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548215</v>
+        <v>234.9630121548214</v>
       </c>
       <c r="P7" t="n">
         <v>177.2931831354465</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198457</v>
+        <v>38.47075143198455</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35264,16 +35266,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38035,7 +38037,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073119.245875763</v>
+        <v>1051841.527612249</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>4171427.157673261</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>28.33592091243833</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>43.98786165864706</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -709,10 +709,10 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>15.4022924851448</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>101.0581453382419</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>29.00708539155832</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>138.3956966967179</v>
+      </c>
+      <c r="W4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9846159221721</v>
+        <v>52.60459006434624</v>
       </c>
       <c r="H5" t="n">
-        <v>305.4930893518355</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770243</v>
+        <v>82.55400685770205</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.3911939813409</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>55.71924642694414</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.08928567761467</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086029</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022647</v>
+        <v>60.12166988915474</v>
       </c>
       <c r="T6" t="n">
-        <v>193.0088160174318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8245826357508</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>40.38752460951727</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5025842422711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074946</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.5860830227523</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.3751434560081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>246.336074505892</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.782072264241674</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.7270444829496</v>
       </c>
       <c r="V10" t="n">
-        <v>123.0150748547381</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>194.5727296124811</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>121.2877059169215</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>110.0923443600247</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.6059442291534</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53.82704427691684</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492377</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147.0541277560815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>253.8293786295319</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.5308300738087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>199.0787065859057</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>275.2907795024324</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.9212967840875</v>
+        <v>27.91584885415293</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>186.9625385917859</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31354443380542</v>
+        <v>111.4262137773468</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>168.1158122680966</v>
+        <v>286.8517409876641</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>157.7822070347174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>2.398536716038238</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>301.7248287451639</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.64444437213178</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>167.5136691783905</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>201.66221878632</v>
+        <v>52.33551640890063</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.9899243971805</v>
+        <v>106.1291724544574</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>283.9746808062639</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.845158429544963</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>91.0806407875467</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>240.5961408007932</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>149.6970050267223</v>
       </c>
       <c r="V38" t="n">
-        <v>111.9684348866502</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>194.617834459598</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>209.3584761600174</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>282.4197562779807</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>33.38304376059015</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.15339550871941</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>307.9755152863499</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>16.32203054610791</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>128.1592673228011</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>118.6752559686001</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="C2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="D2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="E2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>186.1729346284791</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4330,19 +4330,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
@@ -4357,25 +4357,25 @@
         <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="W2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="X2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372648</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.55991817042155</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="C3" t="n">
-        <v>30.55991817042155</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="D3" t="n">
-        <v>30.55991817042155</v>
+        <v>471.9059479379835</v>
       </c>
       <c r="E3" t="n">
-        <v>30.55991817042155</v>
+        <v>312.668492932528</v>
       </c>
       <c r="F3" t="n">
-        <v>30.55991817042155</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>30.55991817042155</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>30.55991817042155</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>409.399488203391</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>409.399488203391</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9797031869063</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9797031869063</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042155</v>
+        <v>620.8403575992347</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042155</v>
+        <v>620.8403575992347</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4494,10 +4494,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349382</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
         <v>471.6341805242515</v>
@@ -4512,28 +4512,28 @@
         <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>233.7219182438896</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U4" t="n">
-        <v>204.4218319897903</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>417.5120799411546</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>228.0922949246699</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1259.83532363024</v>
+        <v>1332.300269572951</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.83532363024</v>
+        <v>1332.300269572951</v>
       </c>
       <c r="D5" t="n">
-        <v>1259.83532363024</v>
+        <v>974.0345709662001</v>
       </c>
       <c r="E5" t="n">
-        <v>1259.83532363024</v>
+        <v>588.2463183679558</v>
       </c>
       <c r="F5" t="n">
-        <v>848.8494188406327</v>
+        <v>177.2604135783483</v>
       </c>
       <c r="G5" t="n">
-        <v>432.7033421515699</v>
+        <v>124.1244640184026</v>
       </c>
       <c r="H5" t="n">
-        <v>124.1244640184027</v>
+        <v>124.1244640184026</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473627</v>
+        <v>140.3063411473636</v>
       </c>
       <c r="K5" t="n">
-        <v>340.274123097882</v>
+        <v>340.2741230978841</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262773</v>
+        <v>625.2536008262814</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100259</v>
+        <v>974.017616910032</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774396</v>
+        <v>1333.038807774403</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417796</v>
+        <v>1658.717076417805</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012939</v>
+        <v>1902.17494301295</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="U5" t="n">
-        <v>1783.212548328701</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="V5" t="n">
-        <v>1452.14966098513</v>
+        <v>1705.76602783403</v>
       </c>
       <c r="W5" t="n">
-        <v>1452.14966098513</v>
+        <v>1705.76602783403</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.83532363024</v>
+        <v>1332.300269572951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1259.83532363024</v>
+        <v>1332.300269572951</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608.2007008148244</v>
+        <v>902.8833547431076</v>
       </c>
       <c r="C6" t="n">
-        <v>433.7476715336974</v>
+        <v>728.4303254619806</v>
       </c>
       <c r="D6" t="n">
-        <v>284.8132618724461</v>
+        <v>579.4959158007293</v>
       </c>
       <c r="E6" t="n">
-        <v>125.5758068669906</v>
+        <v>420.2584607952738</v>
       </c>
       <c r="F6" t="n">
-        <v>69.29373976906723</v>
+        <v>273.7239028221588</v>
       </c>
       <c r="G6" t="n">
-        <v>69.29373976906723</v>
+        <v>136.7863618162941</v>
       </c>
       <c r="H6" t="n">
-        <v>69.29373976906723</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="J6" t="n">
-        <v>206.0519249621745</v>
+        <v>206.0519249621752</v>
       </c>
       <c r="K6" t="n">
-        <v>376.9432986792706</v>
+        <v>386.912297343152</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3967940608945</v>
+        <v>631.3657927247771</v>
       </c>
       <c r="M6" t="n">
-        <v>926.0193612170299</v>
+        <v>935.9883598809138</v>
       </c>
       <c r="N6" t="n">
-        <v>1253.113026208797</v>
+        <v>1263.082024872682</v>
       </c>
       <c r="O6" t="n">
-        <v>1530.120031543139</v>
+        <v>1540.089030207026</v>
       </c>
       <c r="P6" t="n">
-        <v>1733.109508449649</v>
+        <v>1743.078507113537</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513713</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177601</v>
       </c>
       <c r="S6" t="n">
-        <v>1896.721042043989</v>
+        <v>1976.099955693606</v>
       </c>
       <c r="T6" t="n">
-        <v>1701.76264202638</v>
+        <v>1976.099955693606</v>
       </c>
       <c r="U6" t="n">
-        <v>1473.65700300037</v>
+        <v>1976.099955693606</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.504894768627</v>
+        <v>1740.947847461864</v>
       </c>
       <c r="W6" t="n">
-        <v>984.2675380404253</v>
+        <v>1486.710490733662</v>
       </c>
       <c r="X6" t="n">
-        <v>776.4160378348924</v>
+        <v>1278.858990528129</v>
       </c>
       <c r="Y6" t="n">
-        <v>776.4160378348924</v>
+        <v>1071.098691763176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3330770175943</v>
+        <v>654.5924417240981</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3330770175943</v>
+        <v>485.6562587961912</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3330770175943</v>
+        <v>335.5396193838555</v>
       </c>
       <c r="E7" t="n">
-        <v>359.4199834352012</v>
+        <v>187.6265258014624</v>
       </c>
       <c r="F7" t="n">
-        <v>359.4199834352012</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="G7" t="n">
-        <v>191.2355549076547</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="H7" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355202</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536972</v>
+        <v>52.48822935537028</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116522</v>
+        <v>201.6366387116532</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905644</v>
+        <v>448.0216872905662</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786033</v>
+        <v>718.1892983786058</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511242</v>
+        <v>987.3675439511273</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984397</v>
+        <v>1219.980925984401</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.501177288489</v>
+        <v>1395.501177288494</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206154</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="R7" t="n">
-        <v>1322.102640794543</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="S7" t="n">
-        <v>1322.102640794543</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="T7" t="n">
-        <v>1098.278314508935</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="U7" t="n">
-        <v>1098.278314508935</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="V7" t="n">
-        <v>843.5938263030479</v>
+        <v>1433.587221206159</v>
       </c>
       <c r="W7" t="n">
-        <v>554.1766562660873</v>
+        <v>1144.170051169198</v>
       </c>
       <c r="X7" t="n">
-        <v>554.1766562660873</v>
+        <v>916.180500271181</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3330770175943</v>
+        <v>695.3879211276509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.761759316041</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.761759316041</v>
+        <v>1219.751061792096</v>
       </c>
       <c r="D8" t="n">
-        <v>1126.761759316041</v>
+        <v>861.4853631853455</v>
       </c>
       <c r="E8" t="n">
-        <v>1126.761759316041</v>
+        <v>475.6971105871012</v>
       </c>
       <c r="F8" t="n">
-        <v>715.7758545264335</v>
+        <v>64.71120579749368</v>
       </c>
       <c r="G8" t="n">
-        <v>300.0711042507223</v>
+        <v>53.04685956218661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04685956218661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1126.761759316041</v>
+        <v>1975.313418796629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.7770143030104</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1157.264802049561</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.976314381518</v>
+        <v>1157.264802049561</v>
       </c>
       <c r="W10" t="n">
-        <v>923.5591443445579</v>
+        <v>867.8476320126</v>
       </c>
       <c r="X10" t="n">
-        <v>695.5695934465406</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.7770143030104</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2244.12194900241</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1875.159432061998</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1516.893733455248</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.105480857004</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>720.1195760673961</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>305.0471259123926</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>503.6177348148915</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>356.7277873169811</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>189.0249506917001</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5229,22 +5229,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796274</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371782</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304277</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218345</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218345</v>
+        <v>672.0956213641095</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>257.023171209106</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180641</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919561</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943749</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5363,46 +5363,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>270.9995076393847</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>270.9995076393847</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>120.8828682270489</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>120.8828682270489</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X17" t="n">
-        <v>2841.849394875187</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y17" t="n">
-        <v>2451.710062899375</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.7622949738579</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.203338947628</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y19" t="n">
-        <v>934.4107598040977</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796265</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392149</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324644</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5785,19 +5785,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2400.203023730016</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2026.737265468936</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>1636.597933493125</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1611.713337450772</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>1611.713337450772</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>1611.713337450772</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.713337450772</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y22" t="n">
-        <v>1611.713337450772</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6010,31 +6010,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520489</v>
+        <v>3136.754772526559</v>
       </c>
       <c r="V23" t="n">
-        <v>3009.337405520489</v>
+        <v>2805.691885182988</v>
       </c>
       <c r="W23" t="n">
-        <v>3009.337405520489</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X23" t="n">
-        <v>3009.337405520489</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1861.970701620181</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C25" t="n">
-        <v>1693.034518692274</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="D25" t="n">
-        <v>1542.917879279938</v>
+        <v>325.2810343025548</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>3036.502954734815</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>2781.818466528928</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>2492.401296491968</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>2264.41174559395</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>2043.61916645042</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2175.400891308157</v>
+        <v>2295.336172843074</v>
       </c>
       <c r="C26" t="n">
-        <v>1806.438374367745</v>
+        <v>1926.373655902662</v>
       </c>
       <c r="D26" t="n">
-        <v>1448.172675760995</v>
+        <v>1568.107957295912</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.384423162751</v>
+        <v>1182.319704697667</v>
       </c>
       <c r="F26" t="n">
-        <v>651.3985183731431</v>
+        <v>771.3337999080597</v>
       </c>
       <c r="G26" t="n">
-        <v>236.3260682181396</v>
+        <v>356.2613497530562</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6226,19 +6226,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6259,19 +6259,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X26" t="n">
-        <v>2952.140063348091</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.000731372279</v>
+        <v>2681.936012907196</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2246.382089998688</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>2077.445907070781</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>1927.329267658446</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>1779.416174076053</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V28" t="n">
-        <v>3166.229854907436</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W28" t="n">
-        <v>2876.812684870475</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X28" t="n">
-        <v>2648.823133972458</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>2428.030554828928</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.5429342656</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W29" t="n">
-        <v>2689.770379977556</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>2689.770379977556</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>2689.770379977556</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.8289708570296</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>204.8927879291227</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>204.8927879291227</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>204.8927879291227</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>204.8927879291227</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>204.8927879291227</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1004.259565728817</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>776.2700148307995</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y31" t="n">
-        <v>555.4774356872693</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.906610713899</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.8377936138381</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C34" t="n">
-        <v>163.8377936138381</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.8377936138381</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473101</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>764.3411331473101</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>353.3552283577025</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3320.711722185389</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3320.711722185389</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.7358901245717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C37" t="n">
-        <v>509.7358901245717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D37" t="n">
-        <v>359.619250712236</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E37" t="n">
-        <v>359.619250712236</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1684.268143239207</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1429.58365503332</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1140.166484996359</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>912.1769340983416</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>691.3843549548114</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1636.624422581789</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.09759726723</v>
+        <v>3064.106057149677</v>
       </c>
       <c r="V38" t="n">
-        <v>2752.998168088795</v>
+        <v>3064.106057149677</v>
       </c>
       <c r="W38" t="n">
-        <v>2400.229512818681</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="X38" t="n">
-        <v>2026.763754557601</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y38" t="n">
-        <v>1636.624422581789</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658019</v>
+        <v>1317.258377313534</v>
       </c>
       <c r="V40" t="n">
-        <v>1705.527932658019</v>
+        <v>1062.573889107647</v>
       </c>
       <c r="W40" t="n">
-        <v>1705.527932658019</v>
+        <v>773.1567190706866</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.62132134232</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>808.8539464365876</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>808.8539464365876</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>393.7814962815841</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,7 +7423,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3181.594906913448</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3181.594906913448</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>3181.594906913448</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.826251643334</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.360493382254</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y41" t="n">
-        <v>2065.221161406442</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>850.493580837645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>850.493580837645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.608663915319</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.924175709432</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>1480.924175709432</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>1252.934624811415</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>1032.142045667885</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.551972426786</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3309.118922067648</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3055.588445341484</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2724.525557997913</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.756902727799</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.291144466719</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.151812490907</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.9318377313859</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C46" t="n">
-        <v>493.9956548034791</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D46" t="n">
-        <v>343.8790153911433</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E46" t="n">
-        <v>195.9659218087502</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.779602640134</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.362432603173</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.372881705156</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>844.5803025616257</v>
+        <v>332.773976541745</v>
       </c>
     </row>
   </sheetData>
@@ -8142,13 +8142,13 @@
         <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528931</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484648</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174293</v>
+        <v>7.153582300173667</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>23.7786431961043</v>
+        <v>33.84833881618493</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>35.45197419124339</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184734</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100.0350347748394</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>23.46730899739931</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>255.1805474109828</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>106.0018201581671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>91.59400374601441</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491432</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>95.41159008788114</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>73.08464294440365</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>26.63094880313147</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>73.95018921498064</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.66335656800729</v>
+        <v>190.6688044979419</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>64.03263336711609</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>69.12041821276375</v>
+        <v>35.00774886922234</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>126.4919521192238</v>
+        <v>7.756023399656385</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24660,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>94.35543628911057</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>284.1244616205528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>77.37908764444836</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>47.51613997224911</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>104.110570542189</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>58.19598621064668</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>168.0688818921491</v>
+        <v>317.3955842695684</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.5947289549143</v>
+        <v>112.4554808976374</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>126.9470448471895</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>104.3426033586309</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>88.7513393943906</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.61569740481966</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>101.2981669321797</v>
       </c>
       <c r="V38" t="n">
-        <v>215.7838235834847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>91.59400374601486</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.35117922901975</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>12.18800810933976</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>170.53492637903</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>71.46207750949294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>73.95485478591189</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.5959395935122</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>17.26178070013015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>99.90939738349466</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469226</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469226</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814152.0058469226</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814152.0058469224</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814152.0058469226</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814152.0058469225</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="G2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="H2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="I2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="J2" t="n">
         <v>392146.6638165588</v>
-      </c>
-      <c r="I2" t="n">
-        <v>392146.6638165591</v>
-      </c>
-      <c r="J2" t="n">
-        <v>392146.663816559</v>
       </c>
       <c r="K2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="L2" t="n">
-        <v>392146.6638165591</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="M2" t="n">
         <v>392146.663816559</v>
@@ -26355,7 +26355,7 @@
         <v>392146.663816559</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995304</v>
+        <v>356083.2629995336</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862372</v>
+        <v>133886.736186234</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854436</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253518</v>
+        <v>82790.56074253583</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822816</v>
+        <v>33250.48899822729</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.265793415</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>182435.2718021079</v>
+        <v>182435.271802107</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13430.06689216532</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893911</v>
+        <v>82580.74337893934</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453714.5336912094</v>
+        <v>-453714.5336912095</v>
       </c>
       <c r="C6" t="n">
-        <v>-149000.2605086146</v>
+        <v>-149000.2605086171</v>
       </c>
       <c r="D6" t="n">
-        <v>100119.2783479427</v>
+        <v>100119.278347946</v>
       </c>
       <c r="E6" t="n">
-        <v>122337.2765458097</v>
+        <v>118861.0872477484</v>
       </c>
       <c r="F6" t="n">
-        <v>304410.2563630002</v>
+        <v>300934.067064939</v>
       </c>
       <c r="G6" t="n">
-        <v>304410.2563630004</v>
+        <v>300934.0670649394</v>
       </c>
       <c r="H6" t="n">
-        <v>304410.2563630002</v>
+        <v>300934.0670649392</v>
       </c>
       <c r="I6" t="n">
-        <v>304410.2563630004</v>
+        <v>300934.0670649392</v>
       </c>
       <c r="J6" t="n">
-        <v>255345.311634456</v>
+        <v>251869.1223363945</v>
       </c>
       <c r="K6" t="n">
-        <v>221619.6956204652</v>
+        <v>218143.5063224035</v>
       </c>
       <c r="L6" t="n">
-        <v>271159.7673647723</v>
+        <v>267683.5780667118</v>
       </c>
       <c r="M6" t="n">
-        <v>256857.9905695856</v>
+        <v>253381.8012715243</v>
       </c>
       <c r="N6" t="n">
-        <v>304410.256363</v>
+        <v>300934.0670649391</v>
       </c>
       <c r="O6" t="n">
-        <v>304410.2563630004</v>
+        <v>300934.0670649392</v>
       </c>
       <c r="P6" t="n">
-        <v>304410.2563630003</v>
+        <v>300934.0670649391</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495294</v>
+        <v>825.3827462495319</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943973</v>
+        <v>509.2072287944003</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26810,25 +26810,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26962,19 +26962,19 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366248</v>
+        <v>276.9128053366273</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680098</v>
+        <v>108.6821458680072</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280774</v>
+        <v>321.6816416280805</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056416</v>
+        <v>131.3776033056385</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280774</v>
+        <v>321.6816416280806</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056417</v>
+        <v>131.3776033056382</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280774</v>
+        <v>321.6816416280805</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056416</v>
+        <v>131.3776033056385</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>384.7619123176197</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>272.9059644475752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.37651927036177</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568137</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>124.8056230718491</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>257.257996101892</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>113.7419466271101</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>359.3800258578259</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>305.4930893518354</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.4083737866025</v>
+        <v>133.4083737866023</v>
       </c>
       <c r="T5" t="n">
         <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.3399066971281</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>89.34996596643974</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.568165595806</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>28.27158985086011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>78.58512451310983</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8245826357508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>139.44445557242</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380618</v>
       </c>
       <c r="I7" t="n">
-        <v>110.6903745240871</v>
+        <v>110.6903745240869</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.3697346074944</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212289</v>
+        <v>198.0779304212288</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
         <v>286.2378441683352</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.2095098960867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>54.68247805651336</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>63.92784040822882</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>6.500109638251047</v>
       </c>
       <c r="V10" t="n">
-        <v>129.1225684690899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.31812159296293</v>
+        <v>3.31812159296294</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393161</v>
+        <v>33.98171276393172</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127035</v>
+        <v>127.9218827127039</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507377</v>
+        <v>281.6214225507386</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808586</v>
+        <v>422.0775095808599</v>
       </c>
       <c r="L5" t="n">
-        <v>523.624473281498</v>
+        <v>523.6244732814996</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603525</v>
+        <v>582.6331181603542</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363584</v>
+        <v>592.0607311363602</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463333</v>
+        <v>559.0661595463349</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200609</v>
+        <v>477.1500327200623</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720758</v>
+        <v>358.3198031720769</v>
       </c>
       <c r="R5" t="n">
-        <v>208.4319555139578</v>
+        <v>208.4319555139585</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964285</v>
+        <v>75.61169579964307</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319523</v>
+        <v>14.52507727319528</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370343</v>
+        <v>0.2654497274370352</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404648</v>
+        <v>1.775351567404654</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14615855888174</v>
+        <v>17.14615855888179</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055478</v>
+        <v>61.12504300055497</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713313</v>
+        <v>167.7317899713318</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874427</v>
+        <v>286.6803449874436</v>
       </c>
       <c r="L6" t="n">
-        <v>385.4771023875751</v>
+        <v>385.4771023875762</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059935</v>
+        <v>449.8335967059949</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891589</v>
+        <v>461.7393534891604</v>
       </c>
       <c r="O6" t="n">
-        <v>422.4013003377191</v>
+        <v>422.4013003377203</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774719</v>
+        <v>339.0142830774729</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6220702532671</v>
+        <v>226.6220702532677</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727202</v>
+        <v>110.2275297727206</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157316</v>
+        <v>32.97637670157326</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389786</v>
+        <v>7.155912677389807</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1167994452239901</v>
+        <v>0.1167994452239904</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187676</v>
+        <v>1.48839511618768</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937771</v>
+        <v>13.23318566937775</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317121</v>
+        <v>44.76010040317135</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144687</v>
+        <v>105.229534714469</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716227</v>
+        <v>172.9244507716232</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830296</v>
+        <v>221.2837611830303</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947645</v>
+        <v>233.3126998947652</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707924</v>
+        <v>227.7650453707931</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407818</v>
+        <v>210.3778842407824</v>
       </c>
       <c r="P7" t="n">
-        <v>180.014623870553</v>
+        <v>180.0146238705535</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.6327946836789</v>
+        <v>124.6327946836793</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967493</v>
+        <v>66.92365676967513</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574339</v>
+        <v>25.93866761574348</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529158</v>
+        <v>6.359506405529178</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569151</v>
+        <v>0.08118518815569174</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33900,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175009</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240515</v>
+        <v>100.5755180240523</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358781</v>
+        <v>201.9876585358793</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115108</v>
+        <v>287.8580583115124</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330798</v>
+        <v>352.2868849330815</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397675</v>
+        <v>362.6476675397693</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246466</v>
+        <v>328.9679481246482</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647914</v>
+        <v>245.9170369647928</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976263</v>
+        <v>136.0141132976275</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>166.9851986450734</v>
+        <v>166.985198645074</v>
       </c>
       <c r="K6" t="n">
-        <v>172.617549209188</v>
+        <v>182.6872448292695</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077009</v>
+        <v>246.922722607702</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839752</v>
+        <v>307.6995627839765</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3976414058257</v>
+        <v>330.397641405827</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932746</v>
+        <v>279.8050558932759</v>
       </c>
       <c r="P6" t="n">
-        <v>205.0398756631416</v>
+        <v>205.0398756631427</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.7175839030946</v>
+        <v>296.7175839030953</v>
       </c>
       <c r="R6" t="n">
-        <v>10.06969562007708</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.8703545977959</v>
+        <v>11.87035459779622</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457398</v>
+        <v>150.6549589457403</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433457</v>
+        <v>248.8737864433464</v>
       </c>
       <c r="M7" t="n">
-        <v>272.8965768566051</v>
+        <v>272.8965768566057</v>
       </c>
       <c r="N7" t="n">
-        <v>271.897217750021</v>
+        <v>271.8972177500217</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548214</v>
+        <v>234.9630121548221</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354465</v>
+        <v>177.293183135447</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198455</v>
+        <v>38.47075143198494</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
